--- a/RenderTimes.xlsx
+++ b/RenderTimes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/573bcb74941738ce/Jonnas skit/Plugg/Exjobb/Kod/GitHub/BachelorDegreeProjectIT2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Jonnas skit\Plugg\Exjobb\Kod\GitHub\BachelorDegreeProjectIT2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F403D34-578A-4C29-8FF4-EE61CE159142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{0F403D34-578A-4C29-8FF4-EE61CE159142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7D63173-D763-463D-B509-5B3AFD2CBFDE}"/>
   <bookViews>
-    <workbookView xWindow="-18255" yWindow="630" windowWidth="17625" windowHeight="13020" xr2:uid="{AD91D73C-E77C-4A10-B30A-D46D165E264F}"/>
+    <workbookView xWindow="-18435" yWindow="405" windowWidth="17625" windowHeight="13020" xr2:uid="{AD91D73C-E77C-4A10-B30A-D46D165E264F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pilot" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,6 +30,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>ApexCharts</t>
+  </si>
+  <si>
+    <t>Frappe Charts</t>
+  </si>
+  <si>
+    <t>Google Charts</t>
+  </si>
+  <si>
+    <t>TeeChart JS</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>One measurement per library only</t>
+  </si>
+  <si>
+    <t>Unit: ms, rounded to whole number</t>
+  </si>
+  <si>
+    <t>Bar charts only, settings barely touched</t>
+  </si>
+  <si>
+    <t>Shift+f5 done before each measurement to ignore cached content</t>
+  </si>
+  <si>
+    <t>Other browser windows and other applications are open - real test will be done on a separate machine</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,6 +124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +427,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9C930-3AFA-4D50-A31E-4E663B1C3175}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RenderTimes.xlsx
+++ b/RenderTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Jonnas skit\Plugg\Exjobb\Kod\GitHub\BachelorDegreeProjectIT2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{0F403D34-578A-4C29-8FF4-EE61CE159142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7D63173-D763-463D-B509-5B3AFD2CBFDE}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{0F403D34-578A-4C29-8FF4-EE61CE159142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EAA5965-56A7-4A71-95F5-ADC89D5088F9}"/>
   <bookViews>
-    <workbookView xWindow="-18435" yWindow="405" windowWidth="17625" windowHeight="13020" xr2:uid="{AD91D73C-E77C-4A10-B30A-D46D165E264F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD91D73C-E77C-4A10-B30A-D46D165E264F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F40E47A9-81FA-4E37-9CEE-BD43BBD2638F}</author>
+    <author>tc={8BD14EC1-E118-4305-AE63-E2BF47D39A4F}</author>
+    <author>tc={5AF80336-FF07-4401-ADC8-E94CB4F1A8F8}</author>
+    <author>tc={7A0A4ADB-76E3-4819-B0D4-A86BE2CFAB87}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F40E47A9-81FA-4E37-9CEE-BD43BBD2638F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{8BD14EC1-E118-4305-AE63-E2BF47D39A4F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See onenote for details</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{5AF80336-FF07-4401-ADC8-E94CB4F1A8F8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="3" shapeId="0" xr:uid="{7A0A4ADB-76E3-4819-B0D4-A86BE2CFAB87}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See onenote for details</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>ApexCharts</t>
   </si>
@@ -48,9 +93,6 @@
   </si>
   <si>
     <t>1k</t>
-  </si>
-  <si>
-    <t>Small</t>
   </si>
   <si>
     <t>5k</t>
@@ -73,18 +115,51 @@
   <si>
     <t>Other browser windows and other applications are open - real test will be done on a separate machine</t>
   </si>
+  <si>
+    <t>console.time</t>
+  </si>
+  <si>
+    <t>Small (~131)</t>
+  </si>
+  <si>
+    <t>Datasets not exact size - probably 1 less because of headings</t>
+  </si>
+  <si>
+    <t>devtools performance</t>
+  </si>
+  <si>
+    <t>Lighthouse rounds to seconds with one decimal</t>
+  </si>
+  <si>
+    <t>Done in incognito window in chrome</t>
+  </si>
+  <si>
+    <t>Lighthouse (time to interactive)</t>
+  </si>
+  <si>
+    <t>Console.time</t>
+  </si>
+  <si>
+    <t>Devtools performance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,8 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,8 +207,2363 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Pilot!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-21A3-44CC-9C5A-B6708FA02D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Pilot!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21A3-44CC-9C5A-B6708FA02D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Pilot!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21A3-44CC-9C5A-B6708FA02D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Pilot!$B$1:$G$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-21A3-44CC-9C5A-B6708FA02D76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="608630232"/>
+        <c:axId val="608630560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="608630232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608630560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="608630560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="608630232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$B$24:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Console.time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$26:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$B$26:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F8B-4768-AA79-3F88636CDBEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$C$24:$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Console.time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$26:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F8B-4768-AA79-3F88636CDBEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$D$24:$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Devtools performance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$26:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$D$26:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F8B-4768-AA79-3F88636CDBEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$E$24:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Devtools performance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$26:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$E$26:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8F8B-4768-AA79-3F88636CDBEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617897872"/>
+        <c:axId val="617898856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="617897872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617898856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="617898856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617897872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ADADD2-7E52-4D69-ADE7-BEFC6D53E689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA0F7AB-A3CF-49D3-A96A-AF1772CDD8AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Jonna Potatiskatt" id="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" userId="573bcb74941738ce" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,91 +2861,319 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2021-04-01T10:06:12.85" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{F40E47A9-81FA-4E37-9CEE-BD43BBD2638F}">
+    <text>Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{8BD14EC1-E118-4305-AE63-E2BF47D39A4F}">
+    <text>See onenote for details</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2021-04-01T10:06:12.85" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{5AF80336-FF07-4401-ADC8-E94CB4F1A8F8}">
+    <text>Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</text>
+  </threadedComment>
+  <threadedComment ref="F2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{7A0A4ADB-76E3-4819-B0D4-A86BE2CFAB87}">
+    <text>See onenote for details</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9C930-3AFA-4D50-A31E-4E663B1C3175}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9C930-3AFA-4D50-A31E-4E663B1C3175}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>2043</v>
+      </c>
+      <c r="D3">
+        <f>1.4*1000</f>
+        <v>1400</v>
+      </c>
+      <c r="E3">
+        <v>168</v>
+      </c>
+      <c r="F3">
+        <v>5492</v>
+      </c>
+      <c r="G3">
+        <f>7.2*1000</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>13515</v>
+      </c>
+      <c r="D4">
+        <f>1.7*1000</f>
+        <v>1700</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>5139</v>
+      </c>
+      <c r="G4">
+        <f>10.1*1000</f>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>5183</v>
+      </c>
+      <c r="D5">
+        <f>0.9*1000</f>
+        <v>900</v>
+      </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>2175</v>
+      </c>
+      <c r="G5">
+        <f>1.6*1000</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>646</v>
+      </c>
+      <c r="C6">
+        <v>5111</v>
+      </c>
+      <c r="D6">
+        <f>0.6*1000</f>
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>646</v>
+      </c>
+      <c r="F6">
+        <v>5098</v>
+      </c>
+      <c r="G6">
+        <f>1.3*1000</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+      <c r="D25">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="B26">
+        <v>116</v>
+      </c>
+      <c r="C26">
         <v>168</v>
       </c>
+      <c r="D26">
+        <v>2043</v>
+      </c>
+      <c r="E26">
+        <v>5492</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="B27">
         <v>71</v>
       </c>
+      <c r="C27">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <v>13515</v>
+      </c>
+      <c r="E27">
+        <v>5139</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B28">
+        <v>62</v>
+      </c>
+      <c r="C28">
         <v>57</v>
       </c>
+      <c r="D28">
+        <v>5183</v>
+      </c>
+      <c r="E28">
+        <v>2175</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="B29">
         <v>646</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>12</v>
+      <c r="C29">
+        <v>646</v>
+      </c>
+      <c r="D29">
+        <v>5111</v>
+      </c>
+      <c r="E29">
+        <v>5098</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/RenderTimes.xlsx
+++ b/RenderTimes.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\Jonnas skit\Plugg\Exjobb\Kod\GitHub\BachelorDegreeProjectIT2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{0F403D34-578A-4C29-8FF4-EE61CE159142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EAA5965-56A7-4A71-95F5-ADC89D5088F9}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="8_{0F403D34-578A-4C29-8FF4-EE61CE159142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C864D270-9050-4F80-9495-601FBE3703F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD91D73C-E77C-4A10-B30A-D46D165E264F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AD91D73C-E77C-4A10-B30A-D46D165E264F}"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot" sheetId="1" r:id="rId1"/>
+    <sheet name="Pilot refined" sheetId="2" r:id="rId2"/>
+    <sheet name="Bar draft1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +41,13 @@
     <author>tc={8BD14EC1-E118-4305-AE63-E2BF47D39A4F}</author>
     <author>tc={5AF80336-FF07-4401-ADC8-E94CB4F1A8F8}</author>
     <author>tc={7A0A4ADB-76E3-4819-B0D4-A86BE2CFAB87}</author>
+    <author>tc={349880BF-5948-4602-95C5-5551AFE1CF71}</author>
+    <author>tc={1798A34A-6BC4-4D6A-8E4B-3FC4C5859178}</author>
+    <author>tc={91C54B47-FAAB-462A-BB89-0375DDAA06D1}</author>
+    <author>tc={240DDF36-E972-4643-934C-7F1BD14B5CD6}</author>
+    <author>tc={63A98197-3D95-460C-A247-ADF09D7BA27E}</author>
+    <author>tc={40988330-D271-47B5-A3FD-0C5D2A74EF21}</author>
+    <author>tc={AA1B572C-811E-4F2A-A8D8-9F338134F12C}</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F40E47A9-81FA-4E37-9CEE-BD43BBD2638F}">
@@ -73,12 +82,160 @@
     See onenote for details</t>
       </text>
     </comment>
+    <comment ref="H2" authorId="4" shapeId="0" xr:uid="{349880BF-5948-4602-95C5-5551AFE1CF71}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="5" shapeId="0" xr:uid="{1798A34A-6BC4-4D6A-8E4B-3FC4C5859178}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See onenote for details</t>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="6" shapeId="0" xr:uid="{91C54B47-FAAB-462A-BB89-0375DDAA06D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</t>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="7" shapeId="0" xr:uid="{240DDF36-E972-4643-934C-7F1BD14B5CD6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See onenote for details</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="8" shapeId="0" xr:uid="{63A98197-3D95-460C-A247-ADF09D7BA27E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    "Problem uppstod med den här körningen av Lighthouse.
+Sidan lästes in för långsamt för att slutföra sidhämtningen inom tidsgränsen. Resultatet kan vara ofullständigt."</t>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="9" shapeId="0" xr:uid="{40988330-D271-47B5-A3FD-0C5D2A74EF21}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    broken. Need to fix errors from original code and redo all of these</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="10" shapeId="0" xr:uid="{AA1B572C-811E-4F2A-A8D8-9F338134F12C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not show all values. Should fix and re-measure</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FD8FDA2B-D1F7-4BCB-901A-53E7A80CD26E}</author>
+    <author>tc={EAC6F5C2-78BE-4436-97A2-205866F2DB9D}</author>
+    <author>tc={0A58BB3F-A02B-4941-8DD1-FC4FD690D020}</author>
+    <author>tc={8DA41405-3494-40C1-92B8-F0B9643779FD}</author>
+    <author>tc={1CB311E2-7FB3-4D1F-B2BA-2850056C4D83}</author>
+    <author>tc={4425FFB4-C5B6-47B8-8832-7B8E94AC58C6}</author>
+    <author>tc={0B7F4F49-9D4E-417E-916F-5A80018F032A}</author>
+    <author>tc={BA8022B8-13A9-40A7-85BD-B89BED3BC872}</author>
+    <author>tc={B3D0AB29-F747-4F17-803A-1D7C24EE222D}</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{FD8FDA2B-D1F7-4BCB-901A-53E7A80CD26E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{EAC6F5C2-78BE-4436-97A2-205866F2DB9D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See onenote for details</t>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{0A58BB3F-A02B-4941-8DD1-FC4FD690D020}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</t>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="3" shapeId="0" xr:uid="{8DA41405-3494-40C1-92B8-F0B9643779FD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See onenote for details</t>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="4" shapeId="0" xr:uid="{1CB311E2-7FB3-4D1F-B2BA-2850056C4D83}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</t>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="5" shapeId="0" xr:uid="{4425FFB4-C5B6-47B8-8832-7B8E94AC58C6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    See onenote for details</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="6" shapeId="0" xr:uid="{0B7F4F49-9D4E-417E-916F-5A80018F032A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    "Problem uppstod med den här körningen av Lighthouse.
+Sidan lästes in för långsamt för att slutföra sidhämtningen inom tidsgränsen. Resultatet kan vara ofullständigt."</t>
+      </text>
+    </comment>
+    <comment ref="J4" authorId="7" shapeId="0" xr:uid="{BA8022B8-13A9-40A7-85BD-B89BED3BC872}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    broken. Need to fix errors from original code and redo all of these</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="8" shapeId="0" xr:uid="{B3D0AB29-F747-4F17-803A-1D7C24EE222D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Does not show all values. Should fix and re-measure</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>ApexCharts</t>
   </si>
@@ -142,12 +299,36 @@
   <si>
     <t>Devtools performance</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Decision: run lighthouse 5 times manually</t>
+  </si>
+  <si>
+    <t>TeeChartJS</t>
+  </si>
+  <si>
+    <t>Amount of data points</t>
+  </si>
+  <si>
+    <t>Time measured with lighthouse - time to interactive. Done 5 times</t>
+  </si>
+  <si>
+    <t>Other apps and browser windows are running - first test only</t>
+  </si>
+  <si>
+    <t>Bar charts only</t>
+  </si>
+  <si>
+    <t>Time is in seconds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,16 +342,36 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,18 +379,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,633 +443,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pilot!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ApexCharts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Pilot!$B$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Small (~131)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1k</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pilot!$B$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5492</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-21A3-44CC-9C5A-B6708FA02D76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pilot!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frappe Charts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Pilot!$B$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Small (~131)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1k</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pilot!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13515</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5139</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21A3-44CC-9C5A-B6708FA02D76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pilot!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Google Charts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Pilot!$B$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Small (~131)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1k</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pilot!$B$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5183</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2175</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-21A3-44CC-9C5A-B6708FA02D76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pilot!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TeeChart JS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Pilot!$B$1:$G$2</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="6"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>console.time</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>devtools performance</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Lighthouse (time to interactive)</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Small (~131)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1k</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pilot!$B$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5098</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-21A3-44CC-9C5A-B6708FA02D76}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="608630232"/>
-        <c:axId val="608630560"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="608630232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608630560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="608630560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="15000"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="608630232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1384,6 +992,2505 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1k</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>console.time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$E$3:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-740C-412A-A32D-BA5F653D8AEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>devtools performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-740C-412A-A32D-BA5F653D8AEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lighthouse (time to interactive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-740C-412A-A32D-BA5F653D8AEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="631852616"/>
+        <c:axId val="631852944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="631852616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631852944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="631852944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631852616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Small</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>console.time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B24-4C25-B7BE-6071ABF7FCC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>devtools performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B24-4C25-B7BE-6071ABF7FCC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lighthouse (time to interactive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B24-4C25-B7BE-6071ABF7FCC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="635982248"/>
+        <c:axId val="635982576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="635982248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635982576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="635982576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635982248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5k</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>console.time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$H$3:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5326-4302-AF23-FA9BB9BA3966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>devtools performance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5664</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>603</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5326-4302-AF23-FA9BB9BA3966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pilot!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lighthouse (time to interactive)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Pilot!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Pilot!$J$3:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5326-4302-AF23-FA9BB9BA3966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="633836616"/>
+        <c:axId val="633836944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="633836616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633836944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633836944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633836616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pilot refined'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pilot refined'!$B$1:$J$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pilot refined'!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D5E-4FFB-8D82-D12F2E7EB9FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pilot refined'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pilot refined'!$B$1:$J$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pilot refined'!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D5E-4FFB-8D82-D12F2E7EB9FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pilot refined'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pilot refined'!$B$1:$J$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pilot refined'!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D5E-4FFB-8D82-D12F2E7EB9FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pilot refined'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TeeChart JS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Pilot refined'!$B$1:$J$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>console.time</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>devtools performance</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Lighthouse (time to interactive)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Small (~131)</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1k</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5k</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pilot refined'!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D5E-4FFB-8D82-D12F2E7EB9FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="726139896"/>
+        <c:axId val="726140880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="726139896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726140880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726140880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726139896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Render</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> time 100 points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bar draft1'!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ApexCharts</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Frappe Charts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Google Charts</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TeeChartJS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bar draft1'!$B$24:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CF6-430E-A1BF-DE2ED7049711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="690863568"/>
+        <c:axId val="690862256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="690863568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690862256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="690862256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690863568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1464,8 +3571,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1573,11 +3840,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1588,11 +3850,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1624,9 +3881,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2483,44 +4737,2020 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ADADD2-7E52-4D69-ADE7-BEFC6D53E689}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2551,7 +6781,197 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FBC3E82-06F5-4C6B-9CF6-A04A5802101C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB82836-FC1C-44A1-8534-123A532C5130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84779D4C-BF95-491A-9169-E9A14273A2B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>395286</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEE3679-4E34-4173-8E53-B9A631418607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3A786D-CAEE-4D80-B7C4-6415076A46F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2875,15 +7295,70 @@
   <threadedComment ref="F2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{7A0A4ADB-76E3-4819-B0D4-A86BE2CFAB87}">
     <text>See onenote for details</text>
   </threadedComment>
+  <threadedComment ref="H2" dT="2021-04-01T10:06:12.85" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{349880BF-5948-4602-95C5-5551AFE1CF71}">
+    <text>Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</text>
+  </threadedComment>
+  <threadedComment ref="I2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{1798A34A-6BC4-4D6A-8E4B-3FC4C5859178}">
+    <text>See onenote for details</text>
+  </threadedComment>
+  <threadedComment ref="K2" dT="2021-04-01T10:06:12.85" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{91C54B47-FAAB-462A-BB89-0375DDAA06D1}">
+    <text>Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</text>
+  </threadedComment>
+  <threadedComment ref="L2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{240DDF36-E972-4643-934C-7F1BD14B5CD6}">
+    <text>See onenote for details</text>
+  </threadedComment>
+  <threadedComment ref="J3" dT="2021-04-04T09:27:07.48" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{63A98197-3D95-460C-A247-ADF09D7BA27E}">
+    <text>"Problem uppstod med den här körningen av Lighthouse.
+Sidan lästes in för långsamt för att slutföra sidhämtningen inom tidsgränsen. Resultatet kan vara ofullständigt."</text>
+  </threadedComment>
+  <threadedComment ref="J4" dT="2021-04-04T09:34:33.97" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{40988330-D271-47B5-A3FD-0C5D2A74EF21}">
+    <text>broken. Need to fix errors from original code and redo all of these</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2021-04-04T09:39:18.92" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{AA1B572C-811E-4F2A-A8D8-9F338134F12C}">
+    <text>Does not show all values. Should fix and re-measure</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B2" dT="2021-04-01T10:06:12.85" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{FD8FDA2B-D1F7-4BCB-901A-53E7A80CD26E}">
+    <text>Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</text>
+  </threadedComment>
+  <threadedComment ref="C2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{EAC6F5C2-78BE-4436-97A2-205866F2DB9D}">
+    <text>See onenote for details</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2021-04-01T10:06:12.85" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{0A58BB3F-A02B-4941-8DD1-FC4FD690D020}">
+    <text>Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</text>
+  </threadedComment>
+  <threadedComment ref="F2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{8DA41405-3494-40C1-92B8-F0B9643779FD}">
+    <text>See onenote for details</text>
+  </threadedComment>
+  <threadedComment ref="H2" dT="2021-04-01T10:06:12.85" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{1CB311E2-7FB3-4D1F-B2BA-2850056C4D83}">
+    <text>Does not count ACTUAL render time, also the animation takes time. Need to look into other solutions</text>
+  </threadedComment>
+  <threadedComment ref="I2" dT="2021-04-01T10:08:11.84" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{4425FFB4-C5B6-47B8-8832-7B8E94AC58C6}">
+    <text>See onenote for details</text>
+  </threadedComment>
+  <threadedComment ref="J3" dT="2021-04-04T09:27:07.48" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{0B7F4F49-9D4E-417E-916F-5A80018F032A}">
+    <text>"Problem uppstod med den här körningen av Lighthouse.
+Sidan lästes in för långsamt för att slutföra sidhämtningen inom tidsgränsen. Resultatet kan vara ofullständigt."</text>
+  </threadedComment>
+  <threadedComment ref="J4" dT="2021-04-04T09:34:33.97" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{BA8022B8-13A9-40A7-85BD-B89BED3BC872}">
+    <text>broken. Need to fix errors from original code and redo all of these</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2021-04-04T09:39:18.92" personId="{FEB75783-E854-4E7A-B043-CF91282FE8C2}" id="{B3D0AB29-F747-4F17-803A-1D7C24EE222D}">
+    <text>Does not show all values. Should fix and re-measure</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9C930-3AFA-4D50-A31E-4E663B1C3175}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,48 +7367,67 @@
     <col min="2" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2943,7 +7437,7 @@
       <c r="C3">
         <v>2043</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>1.4*1000</f>
         <v>1400</v>
       </c>
@@ -2953,37 +7447,59 @@
       <c r="F3">
         <v>5492</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f>7.2*1000</f>
         <v>7200</v>
       </c>
+      <c r="H3" s="7">
+        <v>162</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5408</v>
+      </c>
+      <c r="J3" s="2">
+        <f>21.7*1000</f>
+        <v>21700</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>71</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>13515</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="9">
         <f>1.7*1000</f>
         <v>1700</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="8">
         <v>71</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="8">
         <v>5139</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="9">
         <f>10.1*1000</f>
         <v>10100</v>
       </c>
+      <c r="H4" s="10">
+        <v>73</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5165</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2993,7 +7509,7 @@
       <c r="C5">
         <v>5183</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f>0.9*1000</f>
         <v>900</v>
       </c>
@@ -3003,12 +7519,22 @@
       <c r="F5">
         <v>2175</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f>1.6*1000</f>
         <v>1600</v>
       </c>
+      <c r="H5" s="7">
+        <v>142</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5664</v>
+      </c>
+      <c r="J5" s="2">
+        <f>11.4*1000</f>
+        <v>11400</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3018,7 +7544,7 @@
       <c r="C6">
         <v>5111</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f>0.6*1000</f>
         <v>600</v>
       </c>
@@ -3028,27 +7554,37 @@
       <c r="F6">
         <v>5098</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f>1.3*1000</f>
         <v>1300</v>
       </c>
+      <c r="H6" s="7">
+        <v>664</v>
+      </c>
+      <c r="I6" s="7">
+        <v>603</v>
+      </c>
+      <c r="J6" s="2">
+        <f>1.7*1000</f>
+        <v>1700</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -3073,11 +7609,16 @@
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="1"/>
       <c r="D24" t="s">
         <v>20</v>
       </c>
@@ -3167,13 +7708,442 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A515435-A5AF-426B-B044-C719B19AD4FE}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>2043</v>
+      </c>
+      <c r="D3" s="2">
+        <f>1.4*1000</f>
+        <v>1400</v>
+      </c>
+      <c r="E3">
+        <v>168</v>
+      </c>
+      <c r="F3">
+        <v>5492</v>
+      </c>
+      <c r="G3" s="2">
+        <f>7.2*1000</f>
+        <v>7200</v>
+      </c>
+      <c r="H3" s="7">
+        <v>162</v>
+      </c>
+      <c r="I3" s="7">
+        <v>5408</v>
+      </c>
+      <c r="J3" s="2">
+        <f>21.7*1000</f>
+        <v>21700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <v>71</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13515</v>
+      </c>
+      <c r="D4" s="9">
+        <f>1.7*1000</f>
+        <v>1700</v>
+      </c>
+      <c r="E4" s="8">
+        <v>71</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5139</v>
+      </c>
+      <c r="G4" s="9">
+        <f>10.1*1000</f>
+        <v>10100</v>
+      </c>
+      <c r="H4" s="10">
+        <v>73</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5165</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>5183</v>
+      </c>
+      <c r="D5" s="2">
+        <f>0.9*1000</f>
+        <v>900</v>
+      </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>2175</v>
+      </c>
+      <c r="G5" s="2">
+        <f>1.6*1000</f>
+        <v>1600</v>
+      </c>
+      <c r="H5" s="7">
+        <v>142</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5664</v>
+      </c>
+      <c r="J5" s="2">
+        <f>11.4*1000</f>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>646</v>
+      </c>
+      <c r="C6">
+        <v>5111</v>
+      </c>
+      <c r="D6" s="2">
+        <f>0.6*1000</f>
+        <v>600</v>
+      </c>
+      <c r="E6">
+        <v>646</v>
+      </c>
+      <c r="F6">
+        <v>5098</v>
+      </c>
+      <c r="G6" s="2">
+        <f>1.3*1000</f>
+        <v>1300</v>
+      </c>
+      <c r="H6" s="7">
+        <v>664</v>
+      </c>
+      <c r="I6" s="7">
+        <v>603</v>
+      </c>
+      <c r="J6" s="2">
+        <f>1.7*1000</f>
+        <v>1700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B938C12F-7971-444F-BF14-690E66A11F09}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B3:B7)</f>
+        <v>0.82</v>
+      </c>
+      <c r="C24" t="e">
+        <f>AVERAGE(C3:C7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f>AVERAGE(B8:B12)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C25" t="e">
+        <f>AVERAGE(C8:C12)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <f>AVERAGE(B13:B17)</f>
+        <v>0.9</v>
+      </c>
+      <c r="C26" t="e">
+        <f>AVERAGE(C13:C17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B18:B22)</f>
+        <v>1.1199999999999999</v>
+      </c>
+      <c r="C27" t="e">
+        <f>AVERAGE(C18:C22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>